--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="193">
   <si>
     <t>土地坐落</t>
   </si>
@@ -257,6 +257,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>高企</t>
   </si>
   <si>
@@ -438,6 +447,9 @@
   </si>
   <si>
     <t>8，520</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1596,13 +1608,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1621,13 +1633,22 @@
       <c r="G1" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
@@ -1644,13 +1665,22 @@
       <c r="G2" s="2">
         <v>710</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -1667,13 +1697,22 @@
       <c r="G3" s="2">
         <v>150000</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -1690,13 +1729,22 @@
       <c r="G4" s="2">
         <v>3610</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -1713,13 +1761,22 @@
       <c r="G5" s="2">
         <v>1870</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -1736,13 +1793,22 @@
       <c r="G6" s="2">
         <v>800</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
@@ -1759,13 +1825,22 @@
       <c r="G7" s="2">
         <v>880</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -1782,19 +1857,28 @@
       <c r="G8" s="2">
         <v>2490</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1805,13 +1889,22 @@
       <c r="G9" s="2">
         <v>22090</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -1828,13 +1921,22 @@
       <c r="G10" s="2">
         <v>3350</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -1849,15 +1951,24 @@
         <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>136</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -1874,13 +1985,22 @@
       <c r="G12" s="2">
         <v>80000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -1897,13 +2017,22 @@
       <c r="G13" s="2">
         <v>10800</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -1920,13 +2049,22 @@
       <c r="G14" s="2">
         <v>12230</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -1943,13 +2081,22 @@
       <c r="G15" s="2">
         <v>1500</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -1964,15 +2111,24 @@
         <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>137</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -1989,13 +2145,22 @@
       <c r="G17" s="2">
         <v>15410</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
@@ -2012,13 +2177,22 @@
       <c r="G18" s="2">
         <v>1250</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
@@ -2035,13 +2209,22 @@
       <c r="G19" s="2">
         <v>35940</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -2058,19 +2241,28 @@
       <c r="G20" s="2">
         <v>33200</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -2081,13 +2273,22 @@
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>32</v>
@@ -2104,13 +2305,22 @@
       <c r="G22" s="2">
         <v>41840</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -2127,13 +2337,22 @@
       <c r="G23" s="2">
         <v>310</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>32</v>
@@ -2150,13 +2369,22 @@
       <c r="G24" s="2">
         <v>17530</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>32</v>
@@ -2173,13 +2401,22 @@
       <c r="G25" s="2">
         <v>5760</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
@@ -2196,13 +2433,22 @@
       <c r="G26" s="2">
         <v>730</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>32</v>
@@ -2217,15 +2463,24 @@
         <v>70</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>138</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>32</v>
@@ -2242,13 +2497,22 @@
       <c r="G28" s="2">
         <v>56710</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
@@ -2265,13 +2529,22 @@
       <c r="G29" s="2">
         <v>1810</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>32</v>
@@ -2286,15 +2559,24 @@
         <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>139</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -2311,13 +2593,22 @@
       <c r="G31" s="2">
         <v>120580</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>32</v>
@@ -2334,19 +2625,28 @@
       <c r="G32" s="2">
         <v>100000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
@@ -2357,13 +2657,22 @@
       <c r="G33" s="2">
         <v>204000</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>32</v>
@@ -2380,13 +2689,22 @@
       <c r="G34" s="2">
         <v>1130</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>32</v>
@@ -2401,15 +2719,24 @@
         <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>140</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>32</v>
@@ -2426,13 +2753,22 @@
       <c r="G36" s="2">
         <v>33020</v>
       </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="H36" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>32</v>
@@ -2449,13 +2785,22 @@
       <c r="G37" s="2">
         <v>394190</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
@@ -2472,13 +2817,22 @@
       <c r="G38" s="2">
         <v>9610</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -2495,13 +2849,22 @@
       <c r="G39" s="2">
         <v>800</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="H39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1">
         <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
@@ -2518,13 +2881,22 @@
       <c r="G40" s="2">
         <v>2570</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1">
         <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -2541,13 +2913,22 @@
       <c r="G41" s="2">
         <v>13540</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J41" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1">
         <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
@@ -2564,16 +2945,25 @@
       <c r="G42" s="2">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="H42" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1">
         <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D43" s="2">
         <v>19380</v>
@@ -2587,13 +2977,22 @@
       <c r="G43" s="2">
         <v>193800</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J43" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1">
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
@@ -2610,13 +3009,22 @@
       <c r="G44" s="2">
         <v>119470</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1">
         <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
@@ -2633,13 +3041,22 @@
       <c r="G45" s="2">
         <v>9870</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J45" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1">
         <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
@@ -2656,13 +3073,22 @@
       <c r="G46" s="2">
         <v>1250</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J46" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1">
         <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
@@ -2679,13 +3105,22 @@
       <c r="G47" s="2">
         <v>4920</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1">
         <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
@@ -2702,13 +3137,22 @@
       <c r="G48" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J48" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1">
         <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
@@ -2725,13 +3169,22 @@
       <c r="G49" s="2">
         <v>9780</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1">
         <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
@@ -2748,13 +3201,22 @@
       <c r="G50" s="2">
         <v>26390</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1">
         <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
@@ -2771,13 +3233,22 @@
       <c r="G51" s="2">
         <v>3050</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1">
         <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
@@ -2792,18 +3263,27 @@
         <v>70</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>141</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J52" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1">
         <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D53" s="2">
         <v>557</v>
@@ -2817,13 +3297,22 @@
       <c r="G53" s="2">
         <v>5570</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J53" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1">
         <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
@@ -2840,16 +3329,25 @@
       <c r="G54" s="2">
         <v>4450</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1">
         <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D55" s="2">
         <v>491</v>
@@ -2863,13 +3361,22 @@
       <c r="G55" s="2">
         <v>4910</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J55" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1">
         <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
@@ -2885,6 +3392,15 @@
       </c>
       <c r="G56" s="2">
         <v>18330</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J56" s="2">
+        <v>1724</v>
       </c>
     </row>
   </sheetData>
@@ -2902,22 +3418,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2925,14 +3441,14 @@
         <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2942,22 +3458,22 @@
         <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2975,16 +3491,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2992,16 +3508,16 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3009,16 +3525,16 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3026,16 +3542,16 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3043,16 +3559,16 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3060,16 +3576,16 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -3090,16 +3606,16 @@
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3107,19 +3623,19 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3127,19 +3643,19 @@
         <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3147,19 +3663,19 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3177,19 +3693,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3200,10 +3716,10 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -3220,13 +3736,13 @@
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F3" s="2">
         <v>81.3</v>
@@ -3240,10 +3756,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="195">
   <si>
     <t>土地坐落</t>
   </si>
@@ -257,6 +257,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -416,37 +419,40 @@
     <t>學文君</t>
   </si>
   <si>
-    <t>馬文君 —</t>
+    <t>馬文君—</t>
   </si>
   <si>
     <t>馬女君</t>
   </si>
   <si>
-    <t>2，209</t>
-  </si>
-  <si>
-    <t>223，621</t>
-  </si>
-  <si>
-    <t>20，400</t>
-  </si>
-  <si>
-    <t>30，000</t>
-  </si>
-  <si>
-    <t>50，000</t>
-  </si>
-  <si>
-    <t>33，320</t>
-  </si>
-  <si>
-    <t>7，740</t>
-  </si>
-  <si>
-    <t>104, _</t>
-  </si>
-  <si>
-    <t>8，520</t>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>223621</t>
+  </si>
+  <si>
+    <t>20400</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>33320</t>
+  </si>
+  <si>
+    <t>7740</t>
+  </si>
+  <si>
+    <t>104_</t>
+  </si>
+  <si>
+    <t>8520</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2011-11-22</t>
@@ -1608,13 +1614,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1642,13 +1648,16 @@
       <c r="J1" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
@@ -1666,21 +1675,24 @@
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -1698,21 +1710,24 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -1730,21 +1745,24 @@
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -1762,21 +1780,24 @@
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -1794,21 +1815,24 @@
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
@@ -1826,21 +1850,24 @@
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -1858,27 +1885,30 @@
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1890,21 +1920,24 @@
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -1922,21 +1955,24 @@
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -1951,24 +1987,27 @@
         <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -1986,21 +2025,24 @@
         <v>80000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -2018,21 +2060,24 @@
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -2050,21 +2095,24 @@
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -2082,21 +2130,24 @@
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -2111,24 +2162,27 @@
         <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -2146,21 +2200,24 @@
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
@@ -2178,21 +2235,24 @@
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
@@ -2210,21 +2270,24 @@
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -2242,27 +2305,30 @@
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -2274,21 +2340,24 @@
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>32</v>
@@ -2306,21 +2375,24 @@
         <v>41840</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -2338,21 +2410,24 @@
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>32</v>
@@ -2370,21 +2445,24 @@
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>32</v>
@@ -2402,21 +2480,24 @@
         <v>5760</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
@@ -2434,21 +2515,24 @@
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>32</v>
@@ -2463,24 +2547,27 @@
         <v>70</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>32</v>
@@ -2498,21 +2585,24 @@
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J28" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
@@ -2530,21 +2620,24 @@
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J29" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>32</v>
@@ -2559,24 +2652,27 @@
         <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J30" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -2594,21 +2690,24 @@
         <v>120580</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J31" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>32</v>
@@ -2626,27 +2725,30 @@
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J32" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
@@ -2658,21 +2760,24 @@
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>32</v>
@@ -2690,21 +2795,24 @@
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>32</v>
@@ -2719,24 +2827,27 @@
         <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J35" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>32</v>
@@ -2754,21 +2865,24 @@
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J36" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>32</v>
@@ -2786,21 +2900,24 @@
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J37" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
@@ -2818,21 +2935,24 @@
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J38" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -2850,21 +2970,24 @@
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
@@ -2882,21 +3005,24 @@
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -2914,21 +3040,24 @@
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J41" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
@@ -2946,24 +3075,27 @@
         <v>1000000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2">
         <v>19380</v>
@@ -2978,21 +3110,24 @@
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J43" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
@@ -3010,21 +3145,24 @@
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J44" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
@@ -3042,21 +3180,24 @@
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K45" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
@@ -3074,21 +3215,24 @@
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J46" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K46" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
@@ -3106,21 +3250,24 @@
         <v>4920</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
@@ -3138,21 +3285,24 @@
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J48" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
@@ -3170,21 +3320,24 @@
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J49" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
@@ -3202,21 +3355,24 @@
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J50" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
@@ -3234,21 +3390,24 @@
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J51" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
@@ -3263,27 +3422,30 @@
         <v>70</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J52" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K52" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1">
         <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D53" s="2">
         <v>557</v>
@@ -3298,21 +3460,24 @@
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J53" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1">
         <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
@@ -3330,24 +3495,27 @@
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J54" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K54" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1">
         <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D55" s="2">
         <v>491</v>
@@ -3362,21 +3530,24 @@
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J55" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>144</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K55" s="2">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1">
         <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
@@ -3394,12 +3565,15 @@
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J56" s="2">
+        <v>144</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K56" s="2">
         <v>1724</v>
       </c>
     </row>
@@ -3418,22 +3592,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3441,14 +3615,14 @@
         <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3458,22 +3632,22 @@
         <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3491,16 +3665,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3508,16 +3682,16 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3525,16 +3699,16 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3542,16 +3716,16 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3559,16 +3733,16 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3576,16 +3750,16 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3606,16 +3780,16 @@
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3623,19 +3797,19 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3643,19 +3817,19 @@
         <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3663,19 +3837,19 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -3693,19 +3867,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3716,10 +3890,10 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -3736,13 +3910,13 @@
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="F3" s="2">
         <v>81.3</v>
@@ -3756,10 +3930,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="200">
   <si>
     <t>土地坐落</t>
   </si>
@@ -260,6 +260,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -269,6 +272,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>高企</t>
   </si>
   <si>
@@ -446,7 +455,7 @@
     <t>7740</t>
   </si>
   <si>
-    <t>104_</t>
+    <t>104</t>
   </si>
   <si>
     <t>8520</t>
@@ -455,7 +464,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp99351</t>
   </si>
   <si>
     <t>名稱</t>
@@ -1614,13 +1629,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1651,13 +1666,22 @@
       <c r="K1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
@@ -1675,24 +1699,33 @@
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N2" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
@@ -1710,24 +1743,33 @@
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N3" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>32</v>
@@ -1745,24 +1787,33 @@
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>32</v>
@@ -1780,24 +1831,33 @@
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>32</v>
@@ -1815,24 +1875,33 @@
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N6" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
@@ -1850,24 +1919,33 @@
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N7" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>32</v>
@@ -1885,30 +1963,39 @@
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N8" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -1920,24 +2007,33 @@
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -1955,24 +2051,33 @@
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N10" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -1987,27 +2092,36 @@
         <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N11" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -2025,24 +2139,33 @@
         <v>80000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -2060,24 +2183,33 @@
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
@@ -2095,24 +2227,33 @@
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N14" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
@@ -2130,24 +2271,33 @@
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
@@ -2162,27 +2312,36 @@
         <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N16" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -2200,24 +2359,33 @@
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
@@ -2235,24 +2403,33 @@
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N18" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
@@ -2270,24 +2447,33 @@
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N19" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -2305,30 +2491,39 @@
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N20" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
@@ -2340,24 +2535,33 @@
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>32</v>
@@ -2375,24 +2579,33 @@
         <v>41840</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N22" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -2410,24 +2623,33 @@
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N23" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>32</v>
@@ -2445,24 +2667,33 @@
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N24" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>32</v>
@@ -2480,24 +2711,33 @@
         <v>5760</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N25" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
@@ -2515,24 +2755,33 @@
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N26" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>32</v>
@@ -2547,27 +2796,36 @@
         <v>70</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N27" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>32</v>
@@ -2585,24 +2843,33 @@
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L28" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N28" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
@@ -2620,24 +2887,33 @@
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N29" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>32</v>
@@ -2652,27 +2928,36 @@
         <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L30" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -2690,24 +2975,33 @@
         <v>120580</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K31" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N31" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>32</v>
@@ -2725,30 +3019,39 @@
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N32" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
@@ -2760,24 +3063,33 @@
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K33" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N33" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>32</v>
@@ -2795,24 +3107,33 @@
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L34" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N34" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>32</v>
@@ -2827,27 +3148,36 @@
         <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K35" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L35" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N35" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>32</v>
@@ -2865,24 +3195,33 @@
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K36" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L36" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N36" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>32</v>
@@ -2900,24 +3239,33 @@
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N37" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>33</v>
@@ -2935,24 +3283,33 @@
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N38" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>33</v>
@@ -2970,24 +3327,33 @@
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N39" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>33</v>
@@ -3005,24 +3371,33 @@
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K40" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N40" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>33</v>
@@ -3040,24 +3415,33 @@
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L41" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N41" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>33</v>
@@ -3075,27 +3459,36 @@
         <v>1000000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K42" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N42" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D43" s="2">
         <v>19380</v>
@@ -3110,24 +3503,33 @@
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L43" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N43" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
@@ -3145,24 +3547,33 @@
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K44" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N44" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>33</v>
@@ -3180,24 +3591,33 @@
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>33</v>
@@ -3215,24 +3635,33 @@
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L46" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N46" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>33</v>
@@ -3250,24 +3679,33 @@
         <v>4920</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K47" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L47" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N47" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
@@ -3285,24 +3723,33 @@
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K48" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L48" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N48" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
@@ -3320,24 +3767,33 @@
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K49" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L49" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N49" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
@@ -3355,24 +3811,33 @@
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K50" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N50" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
@@ -3390,24 +3855,33 @@
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K51" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N51" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>33</v>
@@ -3422,30 +3896,39 @@
         <v>70</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K52" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N52" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D53" s="2">
         <v>557</v>
@@ -3460,24 +3943,33 @@
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K53" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L53" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N53" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>33</v>
@@ -3495,27 +3987,36 @@
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K54" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L54" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N54" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2">
         <v>491</v>
@@ -3530,24 +4031,33 @@
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K55" s="2">
-        <v>1724</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>148</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L55" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N55" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>33</v>
@@ -3565,16 +4075,25 @@
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K56" s="2">
-        <v>1724</v>
+        <v>148</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="N56" s="2">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3592,22 +4111,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3615,14 +4134,14 @@
         <v>139</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3632,22 +4151,22 @@
         <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -3665,16 +4184,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3682,16 +4201,16 @@
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3699,16 +4218,16 @@
         <v>147</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3716,16 +4235,16 @@
         <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3733,16 +4252,16 @@
         <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3750,16 +4269,16 @@
         <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -3780,16 +4299,16 @@
         <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3797,19 +4316,19 @@
         <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3817,19 +4336,19 @@
         <v>161</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3837,19 +4356,19 @@
         <v>162</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3867,19 +4386,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3890,10 +4409,10 @@
         <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -3910,13 +4429,13 @@
         <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="F3" s="2">
         <v>81.3</v>
@@ -3930,10 +4449,10 @@
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -21,18 +21,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="200">
-  <si>
-    <t>土地坐落</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍（持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="761" uniqueCount="194">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市國風段15270000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮埔里段五十甲小段00510000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮埔里段五十甲小段00510001地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮埔里段五十甲小段01040000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮文頭段04610000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮北環段09690000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮忠孝段05050000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮忠孝段05060000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮大瑪璘段03260001地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮大瑪‘璘段03260003地號</t>
+  </si>
+  <si>
+    <t>花蓮縣光復鄉阿托莫段13920000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣光復鄉阿托莫段17080000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣光復鄉阿托莫段17090000地號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮忠信段07200000地號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市國風段01719000建號</t>
+  </si>
+  <si>
+    <t>花蓮縣花蓮市國風段01700000建號</t>
+  </si>
+  <si>
+    <t>南投縣埔里鎮大城里大城路</t>
+  </si>
+  <si>
+    <t>10000分之532</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>20分之1</t>
+  </si>
+  <si>
+    <t>100分之43</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>王俊國</t>
+  </si>
+  <si>
+    <t>馬文君</t>
+  </si>
+  <si>
+    <t>81年3月</t>
+  </si>
+  <si>
+    <t>85年12月</t>
+  </si>
+  <si>
+    <t>79年6月</t>
+  </si>
+  <si>
+    <t>93年4月</t>
+  </si>
+  <si>
+    <t>94年5月</t>
+  </si>
+  <si>
+    <t>100年1月</t>
+  </si>
+  <si>
+    <t>95年6月</t>
+  </si>
+  <si>
+    <t>Em7=*=?貝賣</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>CXXJB貝賣</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝TT年）</t>
+  </si>
+  <si>
+    <t>(超過五年公同共有）</t>
+  </si>
+  <si>
+    <t>&lt;超過五年公同共有）</t>
+  </si>
+  <si>
+    <t>(超過五年主建物109.11附屬建物陽台14.38)</t>
+  </si>
+  <si>
+    <t>(超過五年共同建物）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp99351</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
   </si>
   <si>
     <t>登記（取得)時間</t>
@@ -44,166 +221,7 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>花蓮縣花蓮市國風段1527-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮埔里段五十甲小 段0051-0000地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮埔里段五十甲小 段0051-0001地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮埔里段五十甲小 段0104-0000地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮文頭段0461-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮北環段0969-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮忠孝段0505-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣、埔里鎮忠孝段0506-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮大瑪璘段 0326-0001 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮大瑪‘璘段 0326-0003 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉阿托莫段 1392-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉阿托莫段 1708-0000 地號</t>
-  </si>
-  <si>
-    <t>花蓮縣光復鄉阿托莫段 1709-0000 地號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮忠信段0720-0000 地號</t>
-  </si>
-  <si>
-    <t>建 物標示</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市國風段01719-000 建號</t>
-  </si>
-  <si>
-    <t>花蓮縣花蓮市國風段01700-000 建號</t>
-  </si>
-  <si>
-    <t>南投縣埔里鎮大城里大城路</t>
-  </si>
-  <si>
-    <t>面積（平方 公尺）</t>
-  </si>
-  <si>
-    <t>10000分之 532</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>20分之1</t>
-  </si>
-  <si>
-    <t>100分之43</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>權利範圍（ 持分）</t>
-  </si>
-  <si>
-    <t>王俊國</t>
-  </si>
-  <si>
-    <t>馬文君</t>
-  </si>
-  <si>
-    <t>所；r權人</t>
-  </si>
-  <si>
-    <t>王俊a1</t>
-  </si>
-  <si>
-    <t>81年3月</t>
-  </si>
-  <si>
-    <t>85年12月</t>
-  </si>
-  <si>
-    <t>79年6月</t>
-  </si>
-  <si>
-    <t>93年4月</t>
-  </si>
-  <si>
-    <t>94年5月</t>
-  </si>
-  <si>
-    <t>100年1月</t>
-  </si>
-  <si>
-    <t>登記（取得 )時間</t>
-  </si>
-  <si>
-    <t>95年6月</t>
-  </si>
-  <si>
-    <t>Em 7=*=? 貝賣</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>CXXJ-B^ 貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>登記（取 得）原因</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝TT年）</t>
-  </si>
-  <si>
-    <t>(超過五年,公 同共有）</t>
-  </si>
-  <si>
-    <t>&lt;超過五年’公 同共有）</t>
-  </si>
-  <si>
-    <t>(超過五年，公 同共有）</t>
-  </si>
-  <si>
-    <t>(超過五年，主 建物 109.11, 附屬建物陽台 14.38)</t>
-  </si>
-  <si>
-    <t>(超過五年，共 同建物）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>TOYOTA (自用小客車）</t>
+    <t>TOYOTA(自用小客車）</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -218,13 +236,13 @@
     <t>新臺幣總額專折合新臺幣總額</t>
   </si>
   <si>
-    <t>中華郵啄股份有限公司埔 里郵局</t>
+    <t>中華郵啄股份有限公司埔里郵局</t>
   </si>
   <si>
     <t>第一商業銀行埔里分行</t>
   </si>
   <si>
-    <t>中國信託商業銀行東花蓮 分行</t>
+    <t>中國信託商業銀行東花蓮分行</t>
   </si>
   <si>
     <t>活期儲蓄存款</t>
@@ -239,12 +257,6 @@
     <t>王〇惠</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -257,27 +269,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>高企</t>
   </si>
   <si>
@@ -464,15 +455,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>tmp99351</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -491,22 +473,22 @@
     <t>價</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總$</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>1額：新臺幣 元）</t>
+    <t>1額：新臺幣元）</t>
   </si>
   <si>
     <t>額</t>
@@ -536,28 +518,28 @@
     <t>富貴年年終身壽險</t>
   </si>
   <si>
-    <t>10 ¥缴費新金豐采利率變動 型终i壽險</t>
-  </si>
-  <si>
-    <t>20年繳費新金豐富利率變動 型终身保險</t>
+    <t>10¥缴費新金豐采利率變動型终i壽險</t>
+  </si>
+  <si>
+    <t>20年繳費新金豐富利率變動型终身保險</t>
   </si>
   <si>
     <t>滿福變額年金保險</t>
   </si>
   <si>
-    <t>809,600元</t>
-  </si>
-  <si>
-    <t>548,800元</t>
-  </si>
-  <si>
-    <t>223,800元</t>
-  </si>
-  <si>
-    <t>90,000元</t>
-  </si>
-  <si>
-    <t>1,000,000元</t>
+    <t>809600元</t>
+  </si>
+  <si>
+    <t>548800元</t>
+  </si>
+  <si>
+    <t>223800元</t>
+  </si>
+  <si>
+    <t>90000元</t>
+  </si>
+  <si>
+    <t>1000000元</t>
   </si>
   <si>
     <t>債務人</t>
@@ -620,7 +602,7 @@
     <t>南投縣埔里鎮西寧路36號</t>
   </si>
   <si>
-    <t>1,000，000</t>
+    <t>1000000</t>
   </si>
 </sst>
 </file>
@@ -979,13 +961,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1007,473 +989,825 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>730</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O5" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2">
         <v>742.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O6" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>29.72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O7" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>21</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2">
         <v>140.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O8" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>22</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2">
         <v>3.02</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C10" s="2">
         <v>27.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2">
         <v>242.52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2">
         <v>941.24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>26</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2">
         <v>1244.55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2">
         <v>71.05</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O14" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>28</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2">
         <v>983.43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="2">
         <v>1600000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O15" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="C16" s="2">
+        <v>123.49</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O16" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2">
+        <v>364.84</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="2">
-        <v>123.49</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C18" s="2">
-        <v>364.84</v>
+        <v>263.6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="2">
-        <v>263.6</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>50</v>
+      <c r="J18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="O18" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1491,42 +1825,42 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>50</v>
@@ -1547,36 +1881,36 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F2" s="2">
         <v>8010</v>
@@ -1584,19 +1918,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F3" s="2">
         <v>1190328</v>
@@ -1604,19 +1938,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F4" s="2">
         <v>653</v>
@@ -1637,54 +1971,54 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2">
         <v>71</v>
@@ -1693,42 +2027,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2">
         <v>1724</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N2" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2">
         <v>15000</v>
@@ -1737,42 +2071,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2">
         <v>1724</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N3" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2">
         <v>361</v>
@@ -1781,42 +2115,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G4" s="2">
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L4" s="2">
         <v>1724</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N4" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2">
         <v>187</v>
@@ -1825,42 +2159,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G5" s="2">
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L5" s="2">
         <v>1724</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N5" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <v>80</v>
@@ -1869,42 +2203,42 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G6" s="2">
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L6" s="2">
         <v>1724</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N6" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2">
         <v>88</v>
@@ -1913,42 +2247,42 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G7" s="2">
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L7" s="2">
         <v>1724</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N7" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2">
         <v>249</v>
@@ -1957,86 +2291,86 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2">
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L8" s="2">
         <v>1724</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N8" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G9" s="2">
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L9" s="2">
         <v>1724</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N9" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2">
         <v>335</v>
@@ -2045,42 +2379,42 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G10" s="2">
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L10" s="2">
         <v>1724</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N10" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D11" s="2">
         <v>3000</v>
@@ -2089,42 +2423,42 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L11" s="2">
         <v>1724</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N11" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2">
         <v>8000</v>
@@ -2133,42 +2467,42 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G12" s="2">
         <v>80000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L12" s="2">
         <v>1724</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N12" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2">
         <v>1080</v>
@@ -2177,42 +2511,42 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G13" s="2">
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L13" s="2">
         <v>1724</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N13" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2">
         <v>1223</v>
@@ -2221,42 +2555,42 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2">
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L14" s="2">
         <v>1724</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N14" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2">
         <v>150</v>
@@ -2265,42 +2599,42 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G15" s="2">
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L15" s="2">
         <v>1724</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N15" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D16" s="2">
         <v>5000</v>
@@ -2309,42 +2643,42 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L16" s="2">
         <v>1724</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N16" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2">
         <v>1541</v>
@@ -2353,42 +2687,42 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G17" s="2">
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L17" s="2">
         <v>1724</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N17" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2">
         <v>125</v>
@@ -2397,42 +2731,42 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G18" s="2">
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L18" s="2">
         <v>1724</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N18" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D19" s="2">
         <v>3594</v>
@@ -2441,42 +2775,42 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G19" s="2">
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L19" s="2">
         <v>1724</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N19" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D20" s="2">
         <v>3320</v>
@@ -2485,86 +2819,86 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G20" s="2">
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L20" s="2">
         <v>1724</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N20" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L21" s="2">
         <v>1724</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N21" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D22" s="2">
         <v>4184</v>
@@ -2573,42 +2907,42 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G22" s="2">
         <v>41840</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L22" s="2">
         <v>1724</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N22" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2">
         <v>31</v>
@@ -2617,42 +2951,42 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G23" s="2">
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L23" s="2">
         <v>1724</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N23" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2">
         <v>1753</v>
@@ -2661,42 +2995,42 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G24" s="2">
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L24" s="2">
         <v>1724</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N24" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D25" s="2">
         <v>576</v>
@@ -2705,42 +3039,42 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G25" s="2">
         <v>5760</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L25" s="2">
         <v>1724</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N25" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2">
         <v>73</v>
@@ -2749,42 +3083,42 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G26" s="2">
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L26" s="2">
         <v>1724</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N26" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2">
         <v>3332</v>
@@ -2793,42 +3127,42 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L27" s="2">
         <v>1724</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N27" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2">
         <v>5671</v>
@@ -2837,42 +3171,42 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G28" s="2">
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L28" s="2">
         <v>1724</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N28" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2">
         <v>181</v>
@@ -2881,42 +3215,42 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G29" s="2">
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L29" s="2">
         <v>1724</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N29" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2">
         <v>774</v>
@@ -2925,42 +3259,42 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L30" s="2">
         <v>1724</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N30" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2">
         <v>12058</v>
@@ -2969,42 +3303,42 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G31" s="2">
         <v>120580</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L31" s="2">
         <v>1724</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N31" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D32" s="2">
         <v>10000</v>
@@ -3013,86 +3347,86 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G32" s="2">
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L32" s="2">
         <v>1724</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N32" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G33" s="2">
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L33" s="2">
         <v>1724</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N33" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2">
         <v>113</v>
@@ -3101,42 +3435,42 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G34" s="2">
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L34" s="2">
         <v>1724</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N34" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D35" s="2">
         <v>10498</v>
@@ -3145,42 +3479,42 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L35" s="2">
         <v>1724</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N35" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D36" s="2">
         <v>3302</v>
@@ -3189,42 +3523,42 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G36" s="2">
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L36" s="2">
         <v>1724</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N36" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D37" s="2">
         <v>39419</v>
@@ -3233,42 +3567,42 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G37" s="2">
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L37" s="2">
         <v>1724</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N37" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D38" s="2">
         <v>961</v>
@@ -3277,42 +3611,42 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G38" s="2">
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L38" s="2">
         <v>1724</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N38" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D39" s="2">
         <v>80</v>
@@ -3321,42 +3655,42 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G39" s="2">
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L39" s="2">
         <v>1724</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N39" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D40" s="2">
         <v>257</v>
@@ -3365,42 +3699,42 @@
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G40" s="2">
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L40" s="2">
         <v>1724</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N40" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D41" s="2">
         <v>1354</v>
@@ -3409,42 +3743,42 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G41" s="2">
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L41" s="2">
         <v>1724</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N41" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D42" s="2">
         <v>100000</v>
@@ -3453,42 +3787,42 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G42" s="2">
         <v>1000000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L42" s="2">
         <v>1724</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N42" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2">
         <v>19380</v>
@@ -3497,42 +3831,42 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G43" s="2">
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L43" s="2">
         <v>1724</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N43" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D44" s="2">
         <v>11947</v>
@@ -3541,42 +3875,42 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G44" s="2">
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L44" s="2">
         <v>1724</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N44" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D45" s="2">
         <v>987</v>
@@ -3585,42 +3919,42 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G45" s="2">
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L45" s="2">
         <v>1724</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N45" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D46" s="2">
         <v>125</v>
@@ -3629,42 +3963,42 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G46" s="2">
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L46" s="2">
         <v>1724</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N46" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D47" s="2">
         <v>492</v>
@@ -3673,42 +4007,42 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G47" s="2">
         <v>4920</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L47" s="2">
         <v>1724</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N47" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D48" s="2">
         <v>100</v>
@@ -3717,42 +4051,42 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G48" s="2">
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L48" s="2">
         <v>1724</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N48" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D49" s="2">
         <v>978</v>
@@ -3761,42 +4095,42 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G49" s="2">
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L49" s="2">
         <v>1724</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N49" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D50" s="2">
         <v>2639</v>
@@ -3805,42 +4139,42 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G50" s="2">
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L50" s="2">
         <v>1724</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N50" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D51" s="2">
         <v>305</v>
@@ -3849,42 +4183,42 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G51" s="2">
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L51" s="2">
         <v>1724</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N51" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D52" s="2">
         <v>852</v>
@@ -3893,42 +4227,42 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L52" s="2">
         <v>1724</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N52" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D53" s="2">
         <v>557</v>
@@ -3937,42 +4271,42 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G53" s="2">
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L53" s="2">
         <v>1724</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N53" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D54" s="2">
         <v>445</v>
@@ -3981,42 +4315,42 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G54" s="2">
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L54" s="2">
         <v>1724</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N54" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="D55" s="2">
         <v>491</v>
@@ -4025,42 +4359,42 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G55" s="2">
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L55" s="2">
         <v>1724</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N55" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D56" s="2">
         <v>1833</v>
@@ -4069,31 +4403,31 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="G56" s="2">
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>147</v>
+        <v>57</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>148</v>
+        <v>58</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L56" s="2">
         <v>1724</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>149</v>
+        <v>59</v>
       </c>
       <c r="N56" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4111,62 +4445,62 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4184,101 +4518,101 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4296,79 +4630,79 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -4386,33 +4720,33 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4423,19 +4757,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F3" s="2">
         <v>81.3</v>
@@ -4443,16 +4777,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="170">
   <si>
     <t>name</t>
   </si>
@@ -207,6 +207,9 @@
   </si>
   <si>
     <t>tmp99351</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>TOYOTA(自用小客車）</t>
@@ -1850,38 +1853,59 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="1">
-        <v>1998</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
@@ -1897,6 +1921,27 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1914,16 +1959,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1">
         <v>8010</v>
@@ -1934,16 +1979,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F2" s="2">
         <v>8010</v>
@@ -1954,16 +1999,16 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="F3" s="2">
         <v>1190328</v>
@@ -1974,16 +2019,16 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F4" s="2">
         <v>653</v>
@@ -2010,13 +2055,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2048,7 +2093,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2060,13 +2105,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>59</v>
@@ -2092,7 +2137,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -2104,13 +2149,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>59</v>
@@ -2136,7 +2181,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -2148,13 +2193,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G4" s="2">
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>59</v>
@@ -2180,7 +2225,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -2192,13 +2237,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G5" s="2">
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>59</v>
@@ -2224,7 +2269,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -2236,13 +2281,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G6" s="2">
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>59</v>
@@ -2268,7 +2313,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
@@ -2280,13 +2325,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G7" s="2">
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>59</v>
@@ -2312,7 +2357,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -2324,13 +2369,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G8" s="2">
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>59</v>
@@ -2356,25 +2401,25 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G9" s="2">
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>59</v>
@@ -2400,7 +2445,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
@@ -2412,13 +2457,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G10" s="2">
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>59</v>
@@ -2444,7 +2489,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
@@ -2456,13 +2501,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>59</v>
@@ -2488,7 +2533,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
@@ -2500,13 +2545,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2">
         <v>80000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>59</v>
@@ -2532,7 +2577,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
@@ -2544,13 +2589,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G13" s="2">
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>59</v>
@@ -2576,7 +2621,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
@@ -2588,13 +2633,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G14" s="2">
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>59</v>
@@ -2620,7 +2665,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
@@ -2632,13 +2677,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2">
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>59</v>
@@ -2664,7 +2709,7 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
@@ -2676,13 +2721,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>59</v>
@@ -2708,7 +2753,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
@@ -2720,13 +2765,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G17" s="2">
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>59</v>
@@ -2752,7 +2797,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>38</v>
@@ -2764,13 +2809,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G18" s="2">
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>59</v>
@@ -2796,7 +2841,7 @@
         <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
@@ -2808,13 +2853,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G19" s="2">
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>59</v>
@@ -2840,7 +2885,7 @@
         <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
@@ -2852,13 +2897,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G20" s="2">
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>59</v>
@@ -2884,25 +2929,25 @@
         <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>59</v>
@@ -2928,7 +2973,7 @@
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>38</v>
@@ -2940,13 +2985,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G22" s="2">
         <v>41840</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>59</v>
@@ -2972,7 +3017,7 @@
         <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -2984,13 +3029,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G23" s="2">
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>59</v>
@@ -3016,7 +3061,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>38</v>
@@ -3028,13 +3073,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G24" s="2">
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>59</v>
@@ -3060,7 +3105,7 @@
         <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>38</v>
@@ -3072,13 +3117,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G25" s="2">
         <v>5760</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>59</v>
@@ -3104,7 +3149,7 @@
         <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -3116,13 +3161,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G26" s="2">
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>59</v>
@@ -3148,7 +3193,7 @@
         <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>38</v>
@@ -3160,13 +3205,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>59</v>
@@ -3192,7 +3237,7 @@
         <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>38</v>
@@ -3204,13 +3249,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G28" s="2">
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>59</v>
@@ -3236,7 +3281,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>38</v>
@@ -3248,13 +3293,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G29" s="2">
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>59</v>
@@ -3280,7 +3325,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>38</v>
@@ -3292,13 +3337,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>59</v>
@@ -3324,7 +3369,7 @@
         <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>38</v>
@@ -3336,13 +3381,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G31" s="2">
         <v>120580</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>59</v>
@@ -3368,7 +3413,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>38</v>
@@ -3380,13 +3425,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G32" s="2">
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>59</v>
@@ -3412,25 +3457,25 @@
         <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G33" s="2">
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>59</v>
@@ -3456,7 +3501,7 @@
         <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>38</v>
@@ -3468,13 +3513,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G34" s="2">
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>59</v>
@@ -3500,7 +3545,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>38</v>
@@ -3512,13 +3557,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>59</v>
@@ -3544,7 +3589,7 @@
         <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>38</v>
@@ -3556,13 +3601,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G36" s="2">
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>59</v>
@@ -3588,7 +3633,7 @@
         <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>38</v>
@@ -3600,13 +3645,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G37" s="2">
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>59</v>
@@ -3632,7 +3677,7 @@
         <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>39</v>
@@ -3644,13 +3689,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G38" s="2">
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>59</v>
@@ -3676,7 +3721,7 @@
         <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>39</v>
@@ -3688,13 +3733,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G39" s="2">
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>59</v>
@@ -3720,7 +3765,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>39</v>
@@ -3732,13 +3777,13 @@
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G40" s="2">
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>59</v>
@@ -3764,7 +3809,7 @@
         <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>39</v>
@@ -3776,13 +3821,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G41" s="2">
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>59</v>
@@ -3808,7 +3853,7 @@
         <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>39</v>
@@ -3820,13 +3865,13 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G42" s="2">
         <v>1000000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>59</v>
@@ -3852,10 +3897,10 @@
         <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="2">
         <v>19380</v>
@@ -3864,13 +3909,13 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G43" s="2">
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>59</v>
@@ -3896,7 +3941,7 @@
         <v>108</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>39</v>
@@ -3908,13 +3953,13 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G44" s="2">
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>59</v>
@@ -3940,7 +3985,7 @@
         <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>39</v>
@@ -3952,13 +3997,13 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G45" s="2">
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>59</v>
@@ -3984,7 +4029,7 @@
         <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>39</v>
@@ -3996,13 +4041,13 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G46" s="2">
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>59</v>
@@ -4028,7 +4073,7 @@
         <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>39</v>
@@ -4040,13 +4085,13 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G47" s="2">
         <v>4920</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>59</v>
@@ -4072,7 +4117,7 @@
         <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>39</v>
@@ -4084,13 +4129,13 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G48" s="2">
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>59</v>
@@ -4116,7 +4161,7 @@
         <v>113</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>39</v>
@@ -4128,13 +4173,13 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G49" s="2">
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>59</v>
@@ -4160,7 +4205,7 @@
         <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>39</v>
@@ -4172,13 +4217,13 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G50" s="2">
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>59</v>
@@ -4204,7 +4249,7 @@
         <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>39</v>
@@ -4216,13 +4261,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G51" s="2">
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>59</v>
@@ -4248,7 +4293,7 @@
         <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>39</v>
@@ -4260,13 +4305,13 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>59</v>
@@ -4292,10 +4337,10 @@
         <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D53" s="2">
         <v>557</v>
@@ -4304,13 +4349,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G53" s="2">
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>59</v>
@@ -4336,7 +4381,7 @@
         <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>39</v>
@@ -4348,13 +4393,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G54" s="2">
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>59</v>
@@ -4380,10 +4425,10 @@
         <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D55" s="2">
         <v>491</v>
@@ -4392,13 +4437,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G55" s="2">
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>59</v>
@@ -4424,7 +4469,7 @@
         <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>39</v>
@@ -4436,13 +4481,13 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G56" s="2">
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>59</v>
@@ -4478,14 +4523,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4495,16 +4540,16 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4512,22 +4557,22 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4545,16 +4590,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4562,16 +4607,16 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4579,16 +4624,16 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4596,16 +4641,16 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4613,16 +4658,16 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4630,16 +4675,16 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4657,19 +4702,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1">
         <v>1425132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4677,19 +4722,19 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4697,19 +4742,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4717,19 +4762,19 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -4750,10 +4795,10 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1">
         <v>114378</v>
@@ -4770,10 +4815,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4790,13 +4835,13 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F3" s="2">
         <v>81.3</v>
@@ -4810,10 +4855,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="171">
   <si>
     <t>name</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>TOYOTA(自用小客車）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>中華郵啄股份有限公司埔里郵局</t>
@@ -1923,7 +1926,7 @@
         <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>59</v>
@@ -1959,16 +1962,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1">
         <v>8010</v>
@@ -1979,16 +1982,16 @@
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" s="2">
         <v>8010</v>
@@ -1999,16 +2002,16 @@
         <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="F3" s="2">
         <v>1190328</v>
@@ -2019,16 +2022,16 @@
         <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F4" s="2">
         <v>653</v>
@@ -2055,13 +2058,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2093,7 +2096,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2105,13 +2108,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>59</v>
@@ -2137,7 +2140,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -2149,13 +2152,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>59</v>
@@ -2181,7 +2184,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -2193,13 +2196,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="2">
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>59</v>
@@ -2225,7 +2228,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -2237,13 +2240,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="2">
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>59</v>
@@ -2269,7 +2272,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -2281,13 +2284,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="2">
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>59</v>
@@ -2313,7 +2316,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
@@ -2325,13 +2328,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="2">
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>59</v>
@@ -2357,7 +2360,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -2369,13 +2372,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="2">
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>59</v>
@@ -2401,25 +2404,25 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="2">
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>59</v>
@@ -2445,7 +2448,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
@@ -2457,13 +2460,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2">
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>59</v>
@@ -2489,7 +2492,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
@@ -2501,13 +2504,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>59</v>
@@ -2533,7 +2536,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
@@ -2545,13 +2548,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2">
         <v>80000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>59</v>
@@ -2577,7 +2580,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
@@ -2589,13 +2592,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="2">
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>59</v>
@@ -2621,7 +2624,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
@@ -2633,13 +2636,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2">
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>59</v>
@@ -2665,7 +2668,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
@@ -2677,13 +2680,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G15" s="2">
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>59</v>
@@ -2709,7 +2712,7 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
@@ -2721,13 +2724,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>59</v>
@@ -2753,7 +2756,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
@@ -2765,13 +2768,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G17" s="2">
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>59</v>
@@ -2797,7 +2800,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>38</v>
@@ -2809,13 +2812,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G18" s="2">
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>59</v>
@@ -2841,7 +2844,7 @@
         <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
@@ -2853,13 +2856,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G19" s="2">
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>59</v>
@@ -2885,7 +2888,7 @@
         <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
@@ -2897,13 +2900,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G20" s="2">
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>59</v>
@@ -2929,25 +2932,25 @@
         <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>59</v>
@@ -2973,7 +2976,7 @@
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>38</v>
@@ -2985,13 +2988,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2">
         <v>41840</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>59</v>
@@ -3017,7 +3020,7 @@
         <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -3029,13 +3032,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G23" s="2">
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>59</v>
@@ -3061,7 +3064,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>38</v>
@@ -3073,13 +3076,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G24" s="2">
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>59</v>
@@ -3105,7 +3108,7 @@
         <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>38</v>
@@ -3117,13 +3120,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G25" s="2">
         <v>5760</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>59</v>
@@ -3149,7 +3152,7 @@
         <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -3161,13 +3164,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" s="2">
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>59</v>
@@ -3193,7 +3196,7 @@
         <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>38</v>
@@ -3205,13 +3208,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>59</v>
@@ -3237,7 +3240,7 @@
         <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>38</v>
@@ -3249,13 +3252,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G28" s="2">
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>59</v>
@@ -3281,7 +3284,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>38</v>
@@ -3293,13 +3296,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G29" s="2">
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>59</v>
@@ -3325,7 +3328,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>38</v>
@@ -3337,13 +3340,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>59</v>
@@ -3369,7 +3372,7 @@
         <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>38</v>
@@ -3381,13 +3384,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G31" s="2">
         <v>120580</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>59</v>
@@ -3413,7 +3416,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>38</v>
@@ -3425,13 +3428,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G32" s="2">
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>59</v>
@@ -3457,25 +3460,25 @@
         <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G33" s="2">
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>59</v>
@@ -3501,7 +3504,7 @@
         <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>38</v>
@@ -3513,13 +3516,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G34" s="2">
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>59</v>
@@ -3545,7 +3548,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>38</v>
@@ -3557,13 +3560,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>59</v>
@@ -3589,7 +3592,7 @@
         <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>38</v>
@@ -3601,13 +3604,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G36" s="2">
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>59</v>
@@ -3633,7 +3636,7 @@
         <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>38</v>
@@ -3645,13 +3648,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G37" s="2">
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>59</v>
@@ -3677,7 +3680,7 @@
         <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>39</v>
@@ -3689,13 +3692,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G38" s="2">
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>59</v>
@@ -3721,7 +3724,7 @@
         <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>39</v>
@@ -3733,13 +3736,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G39" s="2">
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>59</v>
@@ -3765,7 +3768,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>39</v>
@@ -3777,13 +3780,13 @@
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G40" s="2">
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>59</v>
@@ -3809,7 +3812,7 @@
         <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>39</v>
@@ -3821,13 +3824,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G41" s="2">
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>59</v>
@@ -3853,7 +3856,7 @@
         <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>39</v>
@@ -3865,13 +3868,13 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G42" s="2">
         <v>1000000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>59</v>
@@ -3897,10 +3900,10 @@
         <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D43" s="2">
         <v>19380</v>
@@ -3909,13 +3912,13 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G43" s="2">
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>59</v>
@@ -3941,7 +3944,7 @@
         <v>108</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>39</v>
@@ -3953,13 +3956,13 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G44" s="2">
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>59</v>
@@ -3985,7 +3988,7 @@
         <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>39</v>
@@ -3997,13 +4000,13 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G45" s="2">
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>59</v>
@@ -4029,7 +4032,7 @@
         <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>39</v>
@@ -4041,13 +4044,13 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G46" s="2">
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>59</v>
@@ -4073,7 +4076,7 @@
         <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>39</v>
@@ -4085,13 +4088,13 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G47" s="2">
         <v>4920</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>59</v>
@@ -4117,7 +4120,7 @@
         <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>39</v>
@@ -4129,13 +4132,13 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G48" s="2">
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>59</v>
@@ -4161,7 +4164,7 @@
         <v>113</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>39</v>
@@ -4173,13 +4176,13 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G49" s="2">
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>59</v>
@@ -4205,7 +4208,7 @@
         <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>39</v>
@@ -4217,13 +4220,13 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G50" s="2">
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>59</v>
@@ -4249,7 +4252,7 @@
         <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>39</v>
@@ -4261,13 +4264,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G51" s="2">
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>59</v>
@@ -4293,7 +4296,7 @@
         <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>39</v>
@@ -4305,13 +4308,13 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>59</v>
@@ -4337,10 +4340,10 @@
         <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D53" s="2">
         <v>557</v>
@@ -4349,13 +4352,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G53" s="2">
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>59</v>
@@ -4381,7 +4384,7 @@
         <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>39</v>
@@ -4393,13 +4396,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G54" s="2">
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>59</v>
@@ -4425,10 +4428,10 @@
         <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D55" s="2">
         <v>491</v>
@@ -4437,13 +4440,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G55" s="2">
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>59</v>
@@ -4469,7 +4472,7 @@
         <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>39</v>
@@ -4481,13 +4484,13 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G56" s="2">
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>59</v>
@@ -4523,14 +4526,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4540,16 +4543,16 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4557,22 +4560,22 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -4590,16 +4593,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4607,16 +4610,16 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4624,16 +4627,16 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4641,16 +4644,16 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4658,16 +4661,16 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4675,16 +4678,16 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4702,19 +4705,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E1" s="1">
         <v>1425132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4722,19 +4725,19 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4742,19 +4745,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4762,19 +4765,19 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -4795,10 +4798,10 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E1" s="1">
         <v>114378</v>
@@ -4815,10 +4818,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4835,13 +4838,13 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F3" s="2">
         <v>81.3</v>
@@ -4855,10 +4858,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="174">
   <si>
     <t>name</t>
   </si>
@@ -218,34 +218,43 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>中華郵啄股份有限公司埔里郵局</t>
   </si>
   <si>
+    <t>第一商業銀行埔里分行</t>
+  </si>
+  <si>
+    <t>中國信託商業銀行東花蓮分行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
     <t>王〇惠</t>
   </si>
   <si>
-    <t>第一商業銀行埔里分行</t>
-  </si>
-  <si>
-    <t>中國信託商業銀行東花蓮分行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>高企</t>
@@ -1954,13 +1963,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
@@ -1971,33 +1980,75 @@
         <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="1">
-        <v>8010</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F2" s="2">
         <v>8010</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>56</v>
       </c>
@@ -2005,19 +2056,40 @@
         <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2">
         <v>1190328</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>57</v>
       </c>
@@ -2025,16 +2097,37 @@
         <v>70</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2">
         <v>653</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="2">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2058,13 +2151,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2096,7 +2189,7 @@
         <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2108,13 +2201,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>59</v>
@@ -2140,7 +2233,7 @@
         <v>65</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
@@ -2152,13 +2245,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>59</v>
@@ -2184,7 +2277,7 @@
         <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>38</v>
@@ -2196,13 +2289,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G4" s="2">
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>59</v>
@@ -2228,7 +2321,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>38</v>
@@ -2240,13 +2333,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G5" s="2">
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>59</v>
@@ -2272,7 +2365,7 @@
         <v>69</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>38</v>
@@ -2284,13 +2377,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G6" s="2">
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>59</v>
@@ -2316,7 +2409,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>38</v>
@@ -2328,13 +2421,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G7" s="2">
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>59</v>
@@ -2360,7 +2453,7 @@
         <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>38</v>
@@ -2372,13 +2465,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G8" s="2">
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>59</v>
@@ -2404,25 +2497,25 @@
         <v>72</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G9" s="2">
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>59</v>
@@ -2448,7 +2541,7 @@
         <v>73</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>38</v>
@@ -2460,13 +2553,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G10" s="2">
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>59</v>
@@ -2492,7 +2585,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>38</v>
@@ -2504,13 +2597,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>59</v>
@@ -2536,7 +2629,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>38</v>
@@ -2548,13 +2641,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G12" s="2">
         <v>80000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>59</v>
@@ -2580,7 +2673,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>38</v>
@@ -2592,13 +2685,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G13" s="2">
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>59</v>
@@ -2624,7 +2717,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>38</v>
@@ -2636,13 +2729,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G14" s="2">
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>59</v>
@@ -2668,7 +2761,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>38</v>
@@ -2680,13 +2773,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G15" s="2">
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>59</v>
@@ -2712,7 +2805,7 @@
         <v>79</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>38</v>
@@ -2724,13 +2817,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>59</v>
@@ -2756,7 +2849,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>38</v>
@@ -2768,13 +2861,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G17" s="2">
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>59</v>
@@ -2800,7 +2893,7 @@
         <v>81</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>38</v>
@@ -2812,13 +2905,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G18" s="2">
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>59</v>
@@ -2844,7 +2937,7 @@
         <v>82</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>38</v>
@@ -2856,13 +2949,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G19" s="2">
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>59</v>
@@ -2888,7 +2981,7 @@
         <v>83</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>38</v>
@@ -2900,13 +2993,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G20" s="2">
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>59</v>
@@ -2932,25 +3025,25 @@
         <v>84</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>59</v>
@@ -2976,7 +3069,7 @@
         <v>85</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>38</v>
@@ -2988,13 +3081,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G22" s="2">
         <v>41840</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>59</v>
@@ -3020,7 +3113,7 @@
         <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>38</v>
@@ -3032,13 +3125,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G23" s="2">
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>59</v>
@@ -3064,7 +3157,7 @@
         <v>87</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>38</v>
@@ -3076,13 +3169,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G24" s="2">
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>59</v>
@@ -3108,7 +3201,7 @@
         <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>38</v>
@@ -3120,13 +3213,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G25" s="2">
         <v>5760</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>59</v>
@@ -3152,7 +3245,7 @@
         <v>89</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>38</v>
@@ -3164,13 +3257,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G26" s="2">
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>59</v>
@@ -3196,7 +3289,7 @@
         <v>90</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>38</v>
@@ -3208,13 +3301,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>59</v>
@@ -3240,7 +3333,7 @@
         <v>91</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>38</v>
@@ -3252,13 +3345,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G28" s="2">
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>59</v>
@@ -3284,7 +3377,7 @@
         <v>92</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>38</v>
@@ -3296,13 +3389,13 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G29" s="2">
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>59</v>
@@ -3328,7 +3421,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>38</v>
@@ -3340,13 +3433,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>59</v>
@@ -3372,7 +3465,7 @@
         <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>38</v>
@@ -3384,13 +3477,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G31" s="2">
         <v>120580</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>59</v>
@@ -3416,7 +3509,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>38</v>
@@ -3428,13 +3521,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G32" s="2">
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>59</v>
@@ -3460,25 +3553,25 @@
         <v>96</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G33" s="2">
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>59</v>
@@ -3504,7 +3597,7 @@
         <v>97</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>38</v>
@@ -3516,13 +3609,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G34" s="2">
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>59</v>
@@ -3548,7 +3641,7 @@
         <v>99</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>38</v>
@@ -3560,13 +3653,13 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>59</v>
@@ -3592,7 +3685,7 @@
         <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>38</v>
@@ -3604,13 +3697,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G36" s="2">
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>59</v>
@@ -3636,7 +3729,7 @@
         <v>101</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>38</v>
@@ -3648,13 +3741,13 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G37" s="2">
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>59</v>
@@ -3680,7 +3773,7 @@
         <v>102</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>39</v>
@@ -3692,13 +3785,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G38" s="2">
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>59</v>
@@ -3724,7 +3817,7 @@
         <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>39</v>
@@ -3736,13 +3829,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G39" s="2">
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>59</v>
@@ -3768,7 +3861,7 @@
         <v>104</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>39</v>
@@ -3780,13 +3873,13 @@
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G40" s="2">
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I40" s="2" t="s">
         <v>59</v>
@@ -3812,7 +3905,7 @@
         <v>105</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>39</v>
@@ -3824,13 +3917,13 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G41" s="2">
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I41" s="2" t="s">
         <v>59</v>
@@ -3856,7 +3949,7 @@
         <v>106</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>39</v>
@@ -3868,13 +3961,13 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G42" s="2">
         <v>1000000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I42" s="2" t="s">
         <v>59</v>
@@ -3900,10 +3993,10 @@
         <v>107</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2">
         <v>19380</v>
@@ -3912,13 +4005,13 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G43" s="2">
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>59</v>
@@ -3944,7 +4037,7 @@
         <v>108</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>39</v>
@@ -3956,13 +4049,13 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G44" s="2">
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>59</v>
@@ -3988,7 +4081,7 @@
         <v>109</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>39</v>
@@ -4000,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G45" s="2">
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>59</v>
@@ -4032,7 +4125,7 @@
         <v>110</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>39</v>
@@ -4044,13 +4137,13 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G46" s="2">
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>59</v>
@@ -4076,7 +4169,7 @@
         <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>39</v>
@@ -4088,13 +4181,13 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G47" s="2">
         <v>4920</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>59</v>
@@ -4120,7 +4213,7 @@
         <v>112</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>39</v>
@@ -4132,13 +4225,13 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G48" s="2">
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>59</v>
@@ -4164,7 +4257,7 @@
         <v>113</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>39</v>
@@ -4176,13 +4269,13 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G49" s="2">
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>59</v>
@@ -4208,7 +4301,7 @@
         <v>114</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>39</v>
@@ -4220,13 +4313,13 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G50" s="2">
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>59</v>
@@ -4252,7 +4345,7 @@
         <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>39</v>
@@ -4264,13 +4357,13 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G51" s="2">
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>59</v>
@@ -4296,7 +4389,7 @@
         <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>39</v>
@@ -4308,13 +4401,13 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>59</v>
@@ -4340,10 +4433,10 @@
         <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D53" s="2">
         <v>557</v>
@@ -4352,13 +4445,13 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G53" s="2">
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>59</v>
@@ -4384,7 +4477,7 @@
         <v>118</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>39</v>
@@ -4396,13 +4489,13 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G54" s="2">
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>59</v>
@@ -4428,10 +4521,10 @@
         <v>119</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D55" s="2">
         <v>491</v>
@@ -4440,13 +4533,13 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G55" s="2">
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>59</v>
@@ -4472,7 +4565,7 @@
         <v>120</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>39</v>
@@ -4484,13 +4577,13 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G56" s="2">
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>59</v>
@@ -4526,14 +4619,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -4543,16 +4636,16 @@
         <v>137</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4560,22 +4653,22 @@
         <v>138</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4593,16 +4686,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4610,16 +4703,16 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4627,16 +4720,16 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4644,16 +4737,16 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4661,16 +4754,16 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4678,16 +4771,16 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4705,19 +4798,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1">
         <v>1425132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4725,19 +4818,19 @@
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E2" s="2">
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4745,19 +4838,19 @@
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4765,19 +4858,19 @@
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4798,10 +4891,10 @@
         <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1">
         <v>114378</v>
@@ -4818,10 +4911,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4838,13 +4931,13 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F3" s="2">
         <v>81.3</v>
@@ -4858,10 +4951,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -11,17 +11,16 @@
     <sheet name="汽車" sheetId="2" r:id="rId2"/>
     <sheet name="存款" sheetId="3" r:id="rId3"/>
     <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
-    <sheet name="保險" sheetId="6" r:id="rId6"/>
-    <sheet name="債務" sheetId="7" r:id="rId7"/>
-    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
+    <sheet name="保險" sheetId="5" r:id="rId5"/>
+    <sheet name="債務" sheetId="6" r:id="rId6"/>
+    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="165">
   <si>
     <t>name</t>
   </si>
@@ -441,33 +440,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總$</t>
-  </si>
-  <si>
-    <t>1額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>國泰人壽</t>
@@ -4611,73 +4583,6 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>137</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>138</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4686,16 +4591,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4703,16 +4608,16 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4720,16 +4625,16 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4737,16 +4642,16 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4754,16 +4659,16 @@
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4771,16 +4676,106 @@
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="1">
+        <v>1425132</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>158</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1425132</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>159</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="E3" s="2">
+        <v>1261393</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
         <v>160</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2560000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4798,103 +4793,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1425132</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>158</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1425132</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1261393</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>160</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2560000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="E1" s="1">
         <v>114378</v>
@@ -4911,10 +4816,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4931,13 +4836,13 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F3" s="2">
         <v>81.3</v>
@@ -4951,10 +4856,10 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>

--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="167">
   <si>
     <t>name</t>
   </si>
@@ -442,18 +442,18 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>國泰人壽</t>
   </si>
   <si>
+    <t>三商美邦人壽</t>
+  </si>
+  <si>
     <t>開運年年終身壽險</t>
   </si>
   <si>
-    <t>809600元</t>
-  </si>
-  <si>
-    <t>三商美邦人壽</t>
-  </si>
-  <si>
     <t>富貴年年終身壽險</t>
   </si>
   <si>
@@ -466,55 +466,61 @@
     <t>滿福變額年金保險</t>
   </si>
   <si>
-    <t>548800元</t>
-  </si>
-  <si>
-    <t>223800元</t>
-  </si>
-  <si>
-    <t>90000元</t>
-  </si>
-  <si>
-    <t>1000000元</t>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>debtor</t>
   </si>
   <si>
     <t>抵押貸款</t>
   </si>
   <si>
+    <t>週轉金貸款(消費理財）</t>
+  </si>
+  <si>
     <t>合作金庫花蓮分行</t>
   </si>
   <si>
+    <t>合作金庫埔里分行</t>
+  </si>
+  <si>
+    <t>第一銀行埔里分行</t>
+  </si>
+  <si>
     <t>94年</t>
   </si>
   <si>
-    <t>週轉金貸款(消費理財）</t>
-  </si>
-  <si>
-    <t>合作金庫埔里分行</t>
-  </si>
-  <si>
-    <t>第一銀行埔里分行</t>
-  </si>
-  <si>
     <t>100年</t>
   </si>
   <si>
     <t>85年</t>
   </si>
   <si>
+    <t>無資料</t>
+  </si>
+  <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>南投縣十方儲蓄互助社</t>
   </si>
   <si>
+    <t>吉钰建設股份有限公司</t>
+  </si>
+  <si>
     <t>南投縣埔里鎮三民路15號</t>
   </si>
   <si>
-    <t>吉钰建設股份有限公司</t>
-  </si>
-  <si>
     <t>南投縣埔里鎮西寧路36號</t>
   </si>
   <si>
-    <t>1000000</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -4583,49 +4589,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>144</v>
@@ -4636,13 +4678,31 @@
       <c r="E3" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>145</v>
@@ -4651,15 +4711,33 @@
         <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>146</v>
@@ -4668,15 +4746,33 @@
         <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>148</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>148</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>147</v>
@@ -4685,7 +4781,25 @@
         <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="2">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4695,35 +4809,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E1" s="1">
-        <v>1425132</v>
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>158</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -4735,47 +4873,119 @@
         <v>1425132</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>156</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>159</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E3" s="2">
         <v>1261393</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>157</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>160</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E4" s="2">
         <v>2560000</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>159</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="2">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4785,30 +4995,54 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="1">
-        <v>114378</v>
-      </c>
-      <c r="F1" s="1">
-        <v>100.1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>165</v>
       </c>
@@ -4816,10 +5050,10 @@
         <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -4827,8 +5061,32 @@
       <c r="F2" s="2">
         <v>100.1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>166</v>
       </c>
@@ -4836,19 +5094,43 @@
         <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1000000</v>
       </c>
       <c r="F3" s="2">
         <v>81.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N3" s="2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>167</v>
       </c>
@@ -4856,16 +5138,40 @@
         <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
       </c>
       <c r="F4" s="2">
         <v>81.3</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="2">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
+++ b/legislator/property/output/normal/馬文君_2011-11-22_財產申報表_tmp99351.xlsx
@@ -8,19 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="土地" sheetId="1" r:id="rId1"/>
-    <sheet name="汽車" sheetId="2" r:id="rId2"/>
-    <sheet name="存款" sheetId="3" r:id="rId3"/>
-    <sheet name="股票" sheetId="4" r:id="rId4"/>
-    <sheet name="保險" sheetId="5" r:id="rId5"/>
-    <sheet name="債務" sheetId="6" r:id="rId6"/>
-    <sheet name="事業投資" sheetId="7" r:id="rId7"/>
+    <sheet name="建物" sheetId="2" r:id="rId2"/>
+    <sheet name="汽車" sheetId="3" r:id="rId3"/>
+    <sheet name="存款" sheetId="4" r:id="rId4"/>
+    <sheet name="股票" sheetId="5" r:id="rId5"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
+    <sheet name="債務" sheetId="7" r:id="rId7"/>
+    <sheet name="事業投資" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="164">
   <si>
     <t>name</t>
   </si>
@@ -112,7 +113,76 @@
     <t>南投縣埔里鎮忠信段07200000地號</t>
   </si>
   <si>
-    <t>花蓮縣花蓮市國風段01719000建號</t>
+    <t>10000分之532</t>
+  </si>
+  <si>
+    <t>2分之1</t>
+  </si>
+  <si>
+    <t>20分之1</t>
+  </si>
+  <si>
+    <t>100分之43</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>王俊國</t>
+  </si>
+  <si>
+    <t>馬文君</t>
+  </si>
+  <si>
+    <t>81年3月</t>
+  </si>
+  <si>
+    <t>85年12月</t>
+  </si>
+  <si>
+    <t>79年6月</t>
+  </si>
+  <si>
+    <t>93年4月</t>
+  </si>
+  <si>
+    <t>94年5月</t>
+  </si>
+  <si>
+    <t>100年1月</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>分割繼承</t>
+  </si>
+  <si>
+    <t>受贈</t>
+  </si>
+  <si>
+    <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>(超堝TT年）</t>
+  </si>
+  <si>
+    <t>(超過五年公同共有）</t>
+  </si>
+  <si>
+    <t>&lt;超過五年公同共有）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2011-11-22</t>
+  </si>
+  <si>
+    <t>tmp99351</t>
   </si>
   <si>
     <t>花蓮縣花蓮市國風段01700000建號</t>
@@ -121,91 +191,13 @@
     <t>南投縣埔里鎮大城里大城路</t>
   </si>
   <si>
-    <t>10000分之532</t>
-  </si>
-  <si>
-    <t>2分之1</t>
-  </si>
-  <si>
-    <t>20分之1</t>
-  </si>
-  <si>
-    <t>100分之43</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>王俊國</t>
-  </si>
-  <si>
-    <t>馬文君</t>
-  </si>
-  <si>
-    <t>81年3月</t>
-  </si>
-  <si>
-    <t>85年12月</t>
-  </si>
-  <si>
-    <t>79年6月</t>
-  </si>
-  <si>
-    <t>93年4月</t>
-  </si>
-  <si>
-    <t>94年5月</t>
-  </si>
-  <si>
-    <t>100年1月</t>
-  </si>
-  <si>
     <t>95年6月</t>
   </si>
   <si>
-    <t>Em7=*=?貝賣</t>
-  </si>
-  <si>
-    <t>分割繼承</t>
-  </si>
-  <si>
-    <t>受贈</t>
-  </si>
-  <si>
-    <t>CXXJB貝賣</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年）</t>
-  </si>
-  <si>
-    <t>(超堝TT年）</t>
-  </si>
-  <si>
-    <t>(超過五年公同共有）</t>
-  </si>
-  <si>
-    <t>&lt;超過五年公同共有）</t>
-  </si>
-  <si>
-    <t>(超過五年主建物109.11附屬建物陽台14.38)</t>
-  </si>
-  <si>
     <t>(超過五年共同建物）</t>
   </si>
   <si>
-    <t>land</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2011-11-22</t>
-  </si>
-  <si>
-    <t>tmp99351</t>
+    <t>building</t>
   </si>
   <si>
     <t>capacity</t>
@@ -879,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -946,37 +938,37 @@
         <v>730</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M2" s="2">
         <v>1724</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2">
         <v>15</v>
@@ -999,37 +991,37 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M3" s="2">
         <v>1724</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O3" s="2">
         <v>16</v>
@@ -1052,37 +1044,37 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M4" s="2">
         <v>1724</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O4" s="2">
         <v>17</v>
@@ -1105,37 +1097,37 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M5" s="2">
         <v>1724</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O5" s="2">
         <v>18</v>
@@ -1158,37 +1150,37 @@
         <v>742.3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M6" s="2">
         <v>1724</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O6" s="2">
         <v>19</v>
@@ -1211,37 +1203,37 @@
         <v>29.72</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2">
         <v>1724</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O7" s="2">
         <v>20</v>
@@ -1264,37 +1256,37 @@
         <v>140.9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M8" s="2">
         <v>1724</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O8" s="2">
         <v>21</v>
@@ -1317,37 +1309,37 @@
         <v>3.02</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M9" s="2">
         <v>1724</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O9" s="2">
         <v>22</v>
@@ -1370,37 +1362,37 @@
         <v>27.5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="J10" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M10" s="2">
         <v>1724</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O10" s="2">
         <v>23</v>
@@ -1423,37 +1415,37 @@
         <v>242.52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="H11" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M11" s="2">
         <v>1724</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O11" s="2">
         <v>24</v>
@@ -1476,37 +1468,37 @@
         <v>941.24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M12" s="2">
         <v>1724</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O12" s="2">
         <v>25</v>
@@ -1529,37 +1521,37 @@
         <v>1244.55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M13" s="2">
         <v>1724</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O13" s="2">
         <v>26</v>
@@ -1582,37 +1574,37 @@
         <v>71.05</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M14" s="2">
         <v>1724</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O14" s="2">
         <v>27</v>
@@ -1635,37 +1627,37 @@
         <v>983.43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="H15" s="2">
         <v>1600000</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M15" s="2">
         <v>1724</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="O15" s="2">
         <v>28</v>
@@ -1675,165 +1667,6 @@
       </c>
       <c r="Q15" s="2">
         <v>983.43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1">
-        <v>29</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2">
-        <v>123.49</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1724</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O16" s="2">
-        <v>29</v>
-      </c>
-      <c r="P16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>123.49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="2">
-        <v>364.84</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="2">
-        <v>1724</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O17" s="2">
-        <v>30</v>
-      </c>
-      <c r="P17" s="2">
-        <v>0.0532</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>19.409488</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1">
-        <v>31</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="2">
-        <v>263.6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="2">
-        <v>1724</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O18" s="2">
-        <v>31</v>
-      </c>
-      <c r="P18" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>263.6</v>
       </c>
     </row>
   </sheetData>
@@ -1842,6 +1675,175 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2">
+        <v>364.84</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" s="2">
+        <v>32</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.0532</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>19.409488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>33</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2">
+        <v>263.6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="2">
+        <v>33</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>263.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N2"/>
   <sheetViews>
@@ -1854,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1892,46 +1894,46 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2">
         <v>1998</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2">
         <v>1724</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N2" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1939,7 +1941,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M4"/>
   <sheetViews>
@@ -1949,13 +1951,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -1987,125 +1989,125 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F2" s="2">
         <v>8010</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K2" s="2">
         <v>1724</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M2" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2">
         <v>1190328</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2">
         <v>1724</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="M3" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="F4" s="2">
         <v>653</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" s="2">
         <v>59</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K4" s="2">
-        <v>1724</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="2">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2113,7 +2115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N56"/>
   <sheetViews>
@@ -2129,13 +2131,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -2164,13 +2166,13 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2">
         <v>71</v>
@@ -2179,42 +2181,42 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2">
         <v>710</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2">
         <v>1724</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N2" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2">
         <v>15000</v>
@@ -2223,42 +2225,42 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" s="2">
         <v>150000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2">
         <v>1724</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2">
         <v>361</v>
@@ -2267,42 +2269,42 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2">
         <v>3610</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2">
         <v>1724</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N4" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2">
         <v>187</v>
@@ -2311,42 +2313,42 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" s="2">
         <v>1870</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L5" s="2">
         <v>1724</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N5" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2">
         <v>80</v>
@@ -2355,42 +2357,42 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" s="2">
         <v>800</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L6" s="2">
         <v>1724</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N6" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2">
         <v>88</v>
@@ -2399,42 +2401,42 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G7" s="2">
         <v>880</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L7" s="2">
         <v>1724</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N7" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2">
         <v>249</v>
@@ -2443,86 +2445,86 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="2">
         <v>2490</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L8" s="2">
         <v>1724</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N8" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G9" s="2">
         <v>22090</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L9" s="2">
         <v>1724</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N9" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2">
         <v>335</v>
@@ -2531,42 +2533,42 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="2">
         <v>3350</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L10" s="2">
         <v>1724</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N10" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2">
         <v>3000</v>
@@ -2575,42 +2577,42 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L11" s="2">
         <v>1724</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N11" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2">
         <v>8000</v>
@@ -2619,42 +2621,42 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2">
         <v>80000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L12" s="2">
         <v>1724</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N12" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2">
         <v>1080</v>
@@ -2663,42 +2665,42 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G13" s="2">
         <v>10800</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L13" s="2">
         <v>1724</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N13" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D14" s="2">
         <v>1223</v>
@@ -2707,42 +2709,42 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G14" s="2">
         <v>12230</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L14" s="2">
         <v>1724</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N14" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2">
         <v>150</v>
@@ -2751,42 +2753,42 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G15" s="2">
         <v>1500</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L15" s="2">
         <v>1724</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N15" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="2">
         <v>5000</v>
@@ -2795,42 +2797,42 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L16" s="2">
         <v>1724</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N16" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D17" s="2">
         <v>1541</v>
@@ -2839,42 +2841,42 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G17" s="2">
         <v>15410</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L17" s="2">
         <v>1724</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N17" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D18" s="2">
         <v>125</v>
@@ -2883,42 +2885,42 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G18" s="2">
         <v>1250</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L18" s="2">
         <v>1724</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N18" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D19" s="2">
         <v>3594</v>
@@ -2927,42 +2929,42 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G19" s="2">
         <v>35940</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L19" s="2">
         <v>1724</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N19" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2">
         <v>3320</v>
@@ -2971,86 +2973,86 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G20" s="2">
         <v>33200</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L20" s="2">
         <v>1724</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N20" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G21" s="2">
         <v>2236210</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L21" s="2">
         <v>1724</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N21" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D22" s="2">
         <v>4184</v>
@@ -3059,42 +3061,42 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G22" s="2">
         <v>41840</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L22" s="2">
         <v>1724</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N22" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2">
         <v>31</v>
@@ -3103,42 +3105,42 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G23" s="2">
         <v>310</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L23" s="2">
         <v>1724</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N23" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24" s="2">
         <v>1753</v>
@@ -3147,42 +3149,42 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G24" s="2">
         <v>17530</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L24" s="2">
         <v>1724</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N24" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D25" s="2">
         <v>576</v>
@@ -3191,42 +3193,42 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G25" s="2">
         <v>5760</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L25" s="2">
         <v>1724</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N25" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2">
         <v>73</v>
@@ -3235,42 +3237,42 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2">
         <v>730</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L26" s="2">
         <v>1724</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N26" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D27" s="2">
         <v>3332</v>
@@ -3279,42 +3281,42 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L27" s="2">
         <v>1724</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N27" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D28" s="2">
         <v>5671</v>
@@ -3323,42 +3325,42 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G28" s="2">
         <v>56710</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L28" s="2">
         <v>1724</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N28" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2">
         <v>181</v>
@@ -3367,42 +3369,42 @@
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G29" s="2">
         <v>1810</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L29" s="2">
         <v>1724</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N29" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D30" s="2">
         <v>774</v>
@@ -3411,42 +3413,42 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L30" s="2">
         <v>1724</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N30" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D31" s="2">
         <v>12058</v>
@@ -3455,42 +3457,42 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G31" s="2">
         <v>120580</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L31" s="2">
         <v>1724</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N31" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D32" s="2">
         <v>10000</v>
@@ -3499,86 +3501,86 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G32" s="2">
         <v>100000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L32" s="2">
         <v>1724</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N32" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G33" s="2">
         <v>204000</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L33" s="2">
         <v>1724</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N33" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D34" s="2">
         <v>113</v>
@@ -3587,42 +3589,42 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G34" s="2">
         <v>1130</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L34" s="2">
         <v>1724</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N34" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D35" s="2">
         <v>10498</v>
@@ -3631,42 +3633,42 @@
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L35" s="2">
         <v>1724</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N35" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D36" s="2">
         <v>3302</v>
@@ -3675,42 +3677,42 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G36" s="2">
         <v>33020</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L36" s="2">
         <v>1724</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N36" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D37" s="2">
         <v>39419</v>
@@ -3719,42 +3721,42 @@
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G37" s="2">
         <v>394190</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L37" s="2">
         <v>1724</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N37" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D38" s="2">
         <v>961</v>
@@ -3763,42 +3765,42 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G38" s="2">
         <v>9610</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L38" s="2">
         <v>1724</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N38" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D39" s="2">
         <v>80</v>
@@ -3807,42 +3809,42 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G39" s="2">
         <v>800</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L39" s="2">
         <v>1724</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N39" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D40" s="2">
         <v>257</v>
@@ -3851,42 +3853,42 @@
         <v>10</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G40" s="2">
         <v>2570</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L40" s="2">
         <v>1724</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N40" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2">
         <v>1354</v>
@@ -3895,42 +3897,42 @@
         <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G41" s="2">
         <v>13540</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L41" s="2">
         <v>1724</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N41" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D42" s="2">
         <v>100000</v>
@@ -3939,42 +3941,42 @@
         <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G42" s="2">
         <v>1000000</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L42" s="2">
         <v>1724</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N42" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" s="2">
         <v>19380</v>
@@ -3983,42 +3985,42 @@
         <v>10</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G43" s="2">
         <v>193800</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L43" s="2">
         <v>1724</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N43" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D44" s="2">
         <v>11947</v>
@@ -4027,42 +4029,42 @@
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G44" s="2">
         <v>119470</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L44" s="2">
         <v>1724</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N44" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D45" s="2">
         <v>987</v>
@@ -4071,42 +4073,42 @@
         <v>10</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G45" s="2">
         <v>9870</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L45" s="2">
         <v>1724</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N45" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D46" s="2">
         <v>125</v>
@@ -4115,42 +4117,42 @@
         <v>10</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G46" s="2">
         <v>1250</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L46" s="2">
         <v>1724</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N46" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D47" s="2">
         <v>492</v>
@@ -4159,42 +4161,42 @@
         <v>10</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G47" s="2">
         <v>4920</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L47" s="2">
         <v>1724</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N47" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D48" s="2">
         <v>100</v>
@@ -4203,42 +4205,42 @@
         <v>10</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G48" s="2">
         <v>1000</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L48" s="2">
         <v>1724</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N48" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D49" s="2">
         <v>978</v>
@@ -4247,42 +4249,42 @@
         <v>10</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G49" s="2">
         <v>9780</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L49" s="2">
         <v>1724</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N49" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D50" s="2">
         <v>2639</v>
@@ -4291,42 +4293,42 @@
         <v>10</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G50" s="2">
         <v>26390</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L50" s="2">
         <v>1724</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N50" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D51" s="2">
         <v>305</v>
@@ -4335,42 +4337,42 @@
         <v>10</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G51" s="2">
         <v>3050</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L51" s="2">
         <v>1724</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N51" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D52" s="2">
         <v>852</v>
@@ -4379,42 +4381,42 @@
         <v>10</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K52" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L52" s="2">
         <v>1724</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N52" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D53" s="2">
         <v>557</v>
@@ -4423,42 +4425,42 @@
         <v>10</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G53" s="2">
         <v>5570</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K53" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L53" s="2">
         <v>1724</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N53" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D54" s="2">
         <v>445</v>
@@ -4467,42 +4469,42 @@
         <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G54" s="2">
         <v>4450</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K54" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L54" s="2">
         <v>1724</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N54" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="D55" s="2">
         <v>491</v>
@@ -4511,42 +4513,42 @@
         <v>10</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G55" s="2">
         <v>4910</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K55" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L55" s="2">
         <v>1724</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N55" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D56" s="2">
         <v>1833</v>
@@ -4555,31 +4557,31 @@
         <v>10</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G56" s="2">
         <v>18330</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K56" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L56" s="2">
         <v>1724</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N56" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4587,7 +4589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K6"/>
   <sheetViews>
@@ -4597,7 +4599,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -4629,363 +4631,177 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2">
         <v>1724</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
+        <v>147</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I3" s="2">
         <v>1724</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K3" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2">
         <v>148</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1724</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2">
         <v>1724</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K5" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I6" s="2">
         <v>1724</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K6" s="2">
-        <v>148</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>158</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1425132</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1724</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N2" s="2">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>159</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1261393</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1724</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="2">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>160</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2560000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1724</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="2">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -5003,13 +4819,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>15</v>
@@ -5044,16 +4860,202 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1425132</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N2" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>161</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1261393</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="2">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
         <v>162</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2560000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1724</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="N4" s="2">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
+        <v>167</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="D2" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>114378</v>
@@ -5062,42 +5064,42 @@
         <v>100.1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2">
         <v>1724</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N2" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E3" s="2">
         <v>1000000</v>
@@ -5106,42 +5108,42 @@
         <v>81.3</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L3" s="2">
         <v>1724</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N3" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E4" s="2">
         <v>3000000</v>
@@ -5150,28 +5152,28 @@
         <v>81.3</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="L4" s="2">
         <v>1724</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="N4" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
